--- a/prep_and_checklists/Leila Benirschke Day 3/Leila Benirschke Day 3_2025-05-02_0.xlsx
+++ b/prep_and_checklists/Leila Benirschke Day 3/Leila Benirschke Day 3_2025-05-02_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Leila Benirschke Day 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6812496-94B4-C143-9B3A-CA733D518105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED955FB0-A58B-0244-BD24-52217B4675CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-220" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
   <si>
     <t>Leila Benirschke Day 3 20 Guests 9:00 am – 5:00 pm Saturday, May 10, 2025</t>
   </si>
@@ -248,33 +248,15 @@
     <t>2 pint</t>
   </si>
   <si>
-    <t>1 x loaf</t>
-  </si>
-  <si>
-    <t>12 sandwiches</t>
-  </si>
-  <si>
     <t>8 ea</t>
   </si>
   <si>
-    <t>1/2 case</t>
-  </si>
-  <si>
     <t>4 quarts</t>
   </si>
   <si>
     <t>1 quart</t>
   </si>
   <si>
-    <t>1x loaf</t>
-  </si>
-  <si>
-    <t>1x side</t>
-  </si>
-  <si>
-    <t>1 pack sliced cheddar</t>
-  </si>
-  <si>
     <t>1pc</t>
   </si>
   <si>
@@ -284,7 +266,55 @@
     <t>5 lbs</t>
   </si>
   <si>
-    <t>5lbs</t>
+    <t>24 sandwiches</t>
+  </si>
+  <si>
+    <t>2 x loaf</t>
+  </si>
+  <si>
+    <t>1 case</t>
+  </si>
+  <si>
+    <t>2x loaf</t>
+  </si>
+  <si>
+    <t>2x side</t>
+  </si>
+  <si>
+    <t>2 pack sliced cheddar</t>
+  </si>
+  <si>
+    <t>10 lbs</t>
+  </si>
+  <si>
+    <t>pineapple, melons, grapes</t>
+  </si>
+  <si>
+    <t>1 flat</t>
+  </si>
+  <si>
+    <t>* in-house</t>
+  </si>
+  <si>
+    <t>*in-house</t>
+  </si>
+  <si>
+    <t>12 ct</t>
+  </si>
+  <si>
+    <t>1 lb</t>
+  </si>
+  <si>
+    <t>2x loaves</t>
+  </si>
+  <si>
+    <t>1 cs</t>
+  </si>
+  <si>
+    <t>2x sides</t>
+  </si>
+  <si>
+    <t>1 pc</t>
   </si>
 </sst>
 </file>
@@ -690,11 +720,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -810,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -818,7 +849,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -842,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -850,7 +881,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -870,7 +901,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -878,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -886,7 +917,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -894,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -902,7 +933,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -910,7 +941,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -929,16 +960,16 @@
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>76</v>
+      <c r="B37" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>76</v>
+      <c r="B38" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -946,7 +977,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -954,7 +985,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -982,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -990,7 +1021,7 @@
         <v>13</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -998,7 +1029,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1006,7 +1037,7 @@
         <v>29</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1014,7 +1045,7 @@
         <v>30</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1022,7 +1053,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1041,8 +1072,8 @@
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>76</v>
+      <c r="B54" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1050,15 +1081,15 @@
         <v>33</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>76</v>
+      <c r="B56" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1066,7 +1097,7 @@
         <v>34</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1082,23 +1113,35 @@
         <v>16</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="65" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:C28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="75" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>36</v>
@@ -1114,7 +1157,9 @@
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
@@ -1123,7 +1168,9 @@
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
@@ -1132,7 +1179,9 @@
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1141,7 +1190,9 @@
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
@@ -1150,7 +1201,9 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
@@ -1159,7 +1212,9 @@
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1168,7 +1223,9 @@
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
@@ -1177,7 +1234,9 @@
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1186,7 +1245,9 @@
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1195,7 +1256,9 @@
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1204,7 +1267,9 @@
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>44</v>
       </c>
@@ -1213,7 +1278,9 @@
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
@@ -1222,7 +1289,9 @@
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1231,7 +1300,9 @@
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
@@ -1240,7 +1311,9 @@
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1249,7 +1322,9 @@
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
@@ -1258,7 +1333,9 @@
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
@@ -1267,7 +1344,9 @@
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
@@ -1276,7 +1355,9 @@
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
@@ -1285,7 +1366,9 @@
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>62</v>
       </c>
@@ -1294,7 +1377,9 @@
       <c r="A23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1303,7 +1388,9 @@
       <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
@@ -1312,7 +1399,9 @@
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
@@ -1321,7 +1410,9 @@
       <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
@@ -1330,7 +1421,9 @@
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>49</v>
       </c>
@@ -1339,12 +1432,15 @@
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>